--- a/Data/metadaten_grafiken_eidgenoessische_abstimmungen.xlsx
+++ b/Data/metadaten_grafiken_eidgenoessische_abstimmungen.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sw\OneDrive\SDA_eidgenoessische_abstimmungen\20250209_LENA_Abstimmungen\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3948DD23-D529-4727-BD4B-EF461C5F2520}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F08B134-E3AF-472B-8F58-DCC1CB7E2D25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="255" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="255" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Schweiz" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="250">
   <si>
     <t>Typ</t>
   </si>
@@ -155,13 +155,6 @@
     <t>https://datawrapper.dwcdn.net/jgT3p/1/</t>
   </si>
   <si>
-    <t>&lt;iframe title="Aktueller Stand der Abstimmungen vom 9. Februar 2025" aria-label="Balken (gestapelt)" id="datawrapper-chart-jgT3p" src="https://datawrapper.dwcdn.net/jgT3p/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="469" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
-&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>&lt;div style="min-height:469px" id="datawrapper-vis-jgT3p"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/jgT3p/embed.js" charset="utf-8" data-target="#datawrapper-vis-jgT3p"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/jgT3p/full.png" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
-  </si>
-  <si>
     <t>Etat actuel des votes au 9 février 2025</t>
   </si>
   <si>
@@ -171,13 +164,6 @@
     <t>https://datawrapper.dwcdn.net/QuOAX/1/</t>
   </si>
   <si>
-    <t>&lt;iframe title="Etat actuel des votes au 9 février 2025" aria-label="Barres empilées" id="datawrapper-chart-QuOAX" src="https://datawrapper.dwcdn.net/QuOAX/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="452" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
-&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>&lt;div style="min-height:452px" id="datawrapper-vis-QuOAX"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/QuOAX/embed.js" charset="utf-8" data-target="#datawrapper-vis-QuOAX"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/QuOAX/full.png" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
-  </si>
-  <si>
     <t>Situazione attuale delle votazioni del 9 febbraio 2025</t>
   </si>
   <si>
@@ -187,13 +173,6 @@
     <t>https://datawrapper.dwcdn.net/8oC44/1/</t>
   </si>
   <si>
-    <t>&lt;iframe title="Situazione attuale delle votazioni del 9 febbraio 2025" aria-label="Barre impilate" id="datawrapper-chart-8oC44" src="https://datawrapper.dwcdn.net/8oC44/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="469" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
-&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>&lt;div style="min-height:469px" id="datawrapper-vis-8oC44"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/8oC44/embed.js" charset="utf-8" data-target="#datawrapper-vis-8oC44"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/8oC44/full.png" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
-  </si>
-  <si>
     <t>CH_Umweltverantwortung</t>
   </si>
   <si>
@@ -206,26 +185,12 @@
     <t>https://datawrapper.dwcdn.net/1zVlt/1/</t>
   </si>
   <si>
-    <t>&lt;iframe title="Umweltverantwortungsinitiative" aria-label="Karte" id="datawrapper-chart-1zVlt" src="https://datawrapper.dwcdn.net/1zVlt/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="495" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
-&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>&lt;div style="min-height:495px" id="datawrapper-vis-1zVlt"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/1zVlt/embed.js" charset="utf-8" data-target="#datawrapper-vis-1zVlt"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/1zVlt/full.png" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
-  </si>
-  <si>
     <t>61KFf</t>
   </si>
   <si>
     <t>https://datawrapper.dwcdn.net/61KFf/1/</t>
   </si>
   <si>
-    <t>&lt;iframe title="Umweltverantwortungsinitiative" aria-label="Karte" id="datawrapper-chart-61KFf" src="https://datawrapper.dwcdn.net/61KFf/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="495" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
-&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>&lt;div style="min-height:495px" id="datawrapper-vis-61KFf"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/61KFf/embed.js" charset="utf-8" data-target="#datawrapper-vis-61KFf"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/61KFf/full.png" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
-  </si>
-  <si>
     <t>Initiative pour la responsabilité environnementale</t>
   </si>
   <si>
@@ -235,26 +200,12 @@
     <t>https://datawrapper.dwcdn.net/M6qyl/1/</t>
   </si>
   <si>
-    <t>&lt;iframe title="Initiative pour la responsabilité environnementale" aria-label="Carte" id="datawrapper-chart-M6qyl" src="https://datawrapper.dwcdn.net/M6qyl/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="495" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
-&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>&lt;div style="min-height:495px" id="datawrapper-vis-M6qyl"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/M6qyl/embed.js" charset="utf-8" data-target="#datawrapper-vis-M6qyl"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/M6qyl/full.png" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
-  </si>
-  <si>
     <t>BHRDV</t>
   </si>
   <si>
     <t>https://datawrapper.dwcdn.net/BHRDV/1/</t>
   </si>
   <si>
-    <t>&lt;iframe title="Initiative pour la responsabilité environnementale" aria-label="Carte" id="datawrapper-chart-BHRDV" src="https://datawrapper.dwcdn.net/BHRDV/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="495" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
-&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>&lt;div style="min-height:495px" id="datawrapper-vis-BHRDV"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/BHRDV/embed.js" charset="utf-8" data-target="#datawrapper-vis-BHRDV"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/BHRDV/full.png" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
-  </si>
-  <si>
     <t>Iniziativa per la responsabilità ambientale</t>
   </si>
   <si>
@@ -264,26 +215,12 @@
     <t>https://datawrapper.dwcdn.net/pHkly/1/</t>
   </si>
   <si>
-    <t>&lt;iframe title="Iniziativa per la responsabilità ambientale" aria-label="Mappa" id="datawrapper-chart-pHkly" src="https://datawrapper.dwcdn.net/pHkly/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="534" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
-&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>&lt;div style="min-height:534px" id="datawrapper-vis-pHkly"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/pHkly/embed.js" charset="utf-8" data-target="#datawrapper-vis-pHkly"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/pHkly/full.png" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
-  </si>
-  <si>
     <t>6ksA0</t>
   </si>
   <si>
     <t>https://datawrapper.dwcdn.net/6ksA0/1/</t>
   </si>
   <si>
-    <t>&lt;iframe title="Iniziativa per la responsabilità ambientale" aria-label="Mappa" id="datawrapper-chart-6ksA0" src="https://datawrapper.dwcdn.net/6ksA0/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="495" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
-&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>&lt;div style="min-height:495px" id="datawrapper-vis-6ksA0"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/6ksA0/embed.js" charset="utf-8" data-target="#datawrapper-vis-6ksA0"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/6ksA0/full.png" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
-  </si>
-  <si>
     <t>AG: Umweltverantwortungsinitiative</t>
   </si>
   <si>
@@ -293,13 +230,6 @@
     <t>https://datawrapper.dwcdn.net/npfI0/1/</t>
   </si>
   <si>
-    <t>&lt;iframe title="AG: Umweltverantwortungsinitiative" aria-label="Karte" id="datawrapper-chart-npfI0" src="https://datawrapper.dwcdn.net/npfI0/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="495" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
-&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>&lt;div style="min-height:495px" id="datawrapper-vis-npfI0"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/npfI0/embed.js" charset="utf-8" data-target="#datawrapper-vis-npfI0"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/npfI0/full.png" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
-  </si>
-  <si>
     <t>AI: Umweltverantwortungsinitiative</t>
   </si>
   <si>
@@ -309,13 +239,6 @@
     <t>https://datawrapper.dwcdn.net/4cZuj/1/</t>
   </si>
   <si>
-    <t>&lt;iframe title="AI: Umweltverantwortungsinitiative" aria-label="Karte" id="datawrapper-chart-4cZuj" src="https://datawrapper.dwcdn.net/4cZuj/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="495" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
-&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>&lt;div style="min-height:495px" id="datawrapper-vis-4cZuj"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/4cZuj/embed.js" charset="utf-8" data-target="#datawrapper-vis-4cZuj"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/4cZuj/full.png" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
-  </si>
-  <si>
     <t>AR: Umweltverantwortungsinitiative</t>
   </si>
   <si>
@@ -325,13 +248,6 @@
     <t>https://datawrapper.dwcdn.net/TXBuv/1/</t>
   </si>
   <si>
-    <t>&lt;iframe title="AR: Umweltverantwortungsinitiative" aria-label="Karte" id="datawrapper-chart-TXBuv" src="https://datawrapper.dwcdn.net/TXBuv/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="495" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
-&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>&lt;div style="min-height:495px" id="datawrapper-vis-TXBuv"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/TXBuv/embed.js" charset="utf-8" data-target="#datawrapper-vis-TXBuv"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/TXBuv/full.png" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
-  </si>
-  <si>
     <t>BE: Umweltverantwortungsinitiative</t>
   </si>
   <si>
@@ -341,13 +257,6 @@
     <t>https://datawrapper.dwcdn.net/lEq91/1/</t>
   </si>
   <si>
-    <t>&lt;iframe title="BE: Umweltverantwortungsinitiative" aria-label="Karte" id="datawrapper-chart-lEq91" src="https://datawrapper.dwcdn.net/lEq91/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="495" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
-&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>&lt;div style="min-height:495px" id="datawrapper-vis-lEq91"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/lEq91/embed.js" charset="utf-8" data-target="#datawrapper-vis-lEq91"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/lEq91/full.png" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
-  </si>
-  <si>
     <t>BE: Initiative pour la responsabilité environnementale</t>
   </si>
   <si>
@@ -357,13 +266,6 @@
     <t>https://datawrapper.dwcdn.net/LHsSl/1/</t>
   </si>
   <si>
-    <t>&lt;iframe title="BE: Initiative pour la responsabilité environnementale" aria-label="Carte" id="datawrapper-chart-LHsSl" src="https://datawrapper.dwcdn.net/LHsSl/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="495" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
-&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>&lt;div style="min-height:495px" id="datawrapper-vis-LHsSl"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/LHsSl/embed.js" charset="utf-8" data-target="#datawrapper-vis-LHsSl"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/LHsSl/full.png" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
-  </si>
-  <si>
     <t>BL: Umweltverantwortungsinitiative</t>
   </si>
   <si>
@@ -373,13 +275,6 @@
     <t>https://datawrapper.dwcdn.net/iL4mU/1/</t>
   </si>
   <si>
-    <t>&lt;iframe title="BL: Umweltverantwortungsinitiative" aria-label="Karte" id="datawrapper-chart-iL4mU" src="https://datawrapper.dwcdn.net/iL4mU/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="495" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
-&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>&lt;div style="min-height:495px" id="datawrapper-vis-iL4mU"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/iL4mU/embed.js" charset="utf-8" data-target="#datawrapper-vis-iL4mU"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/iL4mU/full.png" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
-  </si>
-  <si>
     <t>BS: Umweltverantwortungsinitiative</t>
   </si>
   <si>
@@ -389,13 +284,6 @@
     <t>https://datawrapper.dwcdn.net/wEyBT/1/</t>
   </si>
   <si>
-    <t>&lt;iframe title="BS: Umweltverantwortungsinitiative" aria-label="Karte" id="datawrapper-chart-wEyBT" src="https://datawrapper.dwcdn.net/wEyBT/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="495" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
-&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>&lt;div style="min-height:495px" id="datawrapper-vis-wEyBT"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/wEyBT/embed.js" charset="utf-8" data-target="#datawrapper-vis-wEyBT"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/wEyBT/full.png" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
-  </si>
-  <si>
     <t>FR: Umweltverantwortungsinitiative</t>
   </si>
   <si>
@@ -405,13 +293,6 @@
     <t>https://datawrapper.dwcdn.net/RkWLI/1/</t>
   </si>
   <si>
-    <t>&lt;iframe title="FR: Umweltverantwortungsinitiative" aria-label="Karte" id="datawrapper-chart-RkWLI" src="https://datawrapper.dwcdn.net/RkWLI/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="495" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
-&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>&lt;div style="min-height:495px" id="datawrapper-vis-RkWLI"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/RkWLI/embed.js" charset="utf-8" data-target="#datawrapper-vis-RkWLI"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/RkWLI/full.png" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
-  </si>
-  <si>
     <t>FR: Initiative pour la responsabilité environnementale</t>
   </si>
   <si>
@@ -421,13 +302,6 @@
     <t>https://datawrapper.dwcdn.net/doEOq/1/</t>
   </si>
   <si>
-    <t>&lt;iframe title="FR: Initiative pour la responsabilité environnementale" aria-label="Carte" id="datawrapper-chart-doEOq" src="https://datawrapper.dwcdn.net/doEOq/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="495" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
-&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>&lt;div style="min-height:495px" id="datawrapper-vis-doEOq"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/doEOq/embed.js" charset="utf-8" data-target="#datawrapper-vis-doEOq"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/doEOq/full.png" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
-  </si>
-  <si>
     <t>GE: Initiative pour la responsabilité environnementale</t>
   </si>
   <si>
@@ -437,13 +311,6 @@
     <t>https://datawrapper.dwcdn.net/c3n6S/1/</t>
   </si>
   <si>
-    <t>&lt;iframe title="GE: Initiative pour la responsabilité environnementale" aria-label="Carte" id="datawrapper-chart-c3n6S" src="https://datawrapper.dwcdn.net/c3n6S/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="495" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
-&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>&lt;div style="min-height:495px" id="datawrapper-vis-c3n6S"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/c3n6S/embed.js" charset="utf-8" data-target="#datawrapper-vis-c3n6S"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/c3n6S/full.png" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
-  </si>
-  <si>
     <t>GL: Umweltverantwortungsinitiative</t>
   </si>
   <si>
@@ -453,13 +320,6 @@
     <t>https://datawrapper.dwcdn.net/ZcA7s/1/</t>
   </si>
   <si>
-    <t>&lt;iframe title="GL: Umweltverantwortungsinitiative" aria-label="Karte" id="datawrapper-chart-ZcA7s" src="https://datawrapper.dwcdn.net/ZcA7s/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="495" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
-&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>&lt;div style="min-height:495px" id="datawrapper-vis-ZcA7s"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/ZcA7s/embed.js" charset="utf-8" data-target="#datawrapper-vis-ZcA7s"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/ZcA7s/full.png" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
-  </si>
-  <si>
     <t>GR: Umweltverantwortungsinitiative</t>
   </si>
   <si>
@@ -469,13 +329,6 @@
     <t>https://datawrapper.dwcdn.net/7FS0v/1/</t>
   </si>
   <si>
-    <t>&lt;iframe title="GR: Umweltverantwortungsinitiative" aria-label="Karte" id="datawrapper-chart-7FS0v" src="https://datawrapper.dwcdn.net/7FS0v/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="495" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
-&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>&lt;div style="min-height:495px" id="datawrapper-vis-7FS0v"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/7FS0v/embed.js" charset="utf-8" data-target="#datawrapper-vis-7FS0v"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/7FS0v/full.png" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
-  </si>
-  <si>
     <t>GR: Iniziativa per la responsabilità ambientale</t>
   </si>
   <si>
@@ -485,13 +338,6 @@
     <t>https://datawrapper.dwcdn.net/eQM3y/1/</t>
   </si>
   <si>
-    <t>&lt;iframe title="GR: Iniziativa per la responsabilità ambientale" aria-label="Mappa" id="datawrapper-chart-eQM3y" src="https://datawrapper.dwcdn.net/eQM3y/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="534" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
-&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>&lt;div style="min-height:534px" id="datawrapper-vis-eQM3y"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/eQM3y/embed.js" charset="utf-8" data-target="#datawrapper-vis-eQM3y"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/eQM3y/full.png" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
-  </si>
-  <si>
     <t>JU: Initiative pour la responsabilité environnementale</t>
   </si>
   <si>
@@ -501,13 +347,6 @@
     <t>https://datawrapper.dwcdn.net/I3zzi/1/</t>
   </si>
   <si>
-    <t>&lt;iframe title="JU: Initiative pour la responsabilité environnementale" aria-label="Carte" id="datawrapper-chart-I3zzi" src="https://datawrapper.dwcdn.net/I3zzi/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="495" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
-&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>&lt;div style="min-height:495px" id="datawrapper-vis-I3zzi"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/I3zzi/embed.js" charset="utf-8" data-target="#datawrapper-vis-I3zzi"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/I3zzi/full.png" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
-  </si>
-  <si>
     <t>LU: Umweltverantwortungsinitiative</t>
   </si>
   <si>
@@ -517,13 +356,6 @@
     <t>https://datawrapper.dwcdn.net/782V7/1/</t>
   </si>
   <si>
-    <t>&lt;iframe title="LU: Umweltverantwortungsinitiative" aria-label="Karte" id="datawrapper-chart-782V7" src="https://datawrapper.dwcdn.net/782V7/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="495" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
-&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>&lt;div style="min-height:495px" id="datawrapper-vis-782V7"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/782V7/embed.js" charset="utf-8" data-target="#datawrapper-vis-782V7"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/782V7/full.png" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
-  </si>
-  <si>
     <t>NE: Initiative pour la responsabilité environnementale</t>
   </si>
   <si>
@@ -533,13 +365,6 @@
     <t>https://datawrapper.dwcdn.net/V6p8L/1/</t>
   </si>
   <si>
-    <t>&lt;iframe title="NE: Initiative pour la responsabilité environnementale" aria-label="Carte" id="datawrapper-chart-V6p8L" src="https://datawrapper.dwcdn.net/V6p8L/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="495" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
-&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>&lt;div style="min-height:495px" id="datawrapper-vis-V6p8L"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/V6p8L/embed.js" charset="utf-8" data-target="#datawrapper-vis-V6p8L"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/V6p8L/full.png" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
-  </si>
-  <si>
     <t>NW: Umweltverantwortungsinitiative</t>
   </si>
   <si>
@@ -549,13 +374,6 @@
     <t>https://datawrapper.dwcdn.net/G4wXr/1/</t>
   </si>
   <si>
-    <t>&lt;iframe title="NW: Umweltverantwortungsinitiative" aria-label="Karte" id="datawrapper-chart-G4wXr" src="https://datawrapper.dwcdn.net/G4wXr/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="495" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
-&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>&lt;div style="min-height:495px" id="datawrapper-vis-G4wXr"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/G4wXr/embed.js" charset="utf-8" data-target="#datawrapper-vis-G4wXr"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/G4wXr/full.png" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
-  </si>
-  <si>
     <t>OW: Umweltverantwortungsinitiative</t>
   </si>
   <si>
@@ -565,13 +383,6 @@
     <t>https://datawrapper.dwcdn.net/HW4Xa/1/</t>
   </si>
   <si>
-    <t>&lt;iframe title="OW: Umweltverantwortungsinitiative" aria-label="Karte" id="datawrapper-chart-HW4Xa" src="https://datawrapper.dwcdn.net/HW4Xa/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="495" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
-&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>&lt;div style="min-height:495px" id="datawrapper-vis-HW4Xa"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/HW4Xa/embed.js" charset="utf-8" data-target="#datawrapper-vis-HW4Xa"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/HW4Xa/full.png" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
-  </si>
-  <si>
     <t>SG: Umweltverantwortungsinitiative</t>
   </si>
   <si>
@@ -581,13 +392,6 @@
     <t>https://datawrapper.dwcdn.net/sOGeN/1/</t>
   </si>
   <si>
-    <t>&lt;iframe title="SG: Umweltverantwortungsinitiative" aria-label="Karte" id="datawrapper-chart-sOGeN" src="https://datawrapper.dwcdn.net/sOGeN/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="495" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
-&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>&lt;div style="min-height:495px" id="datawrapper-vis-sOGeN"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/sOGeN/embed.js" charset="utf-8" data-target="#datawrapper-vis-sOGeN"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/sOGeN/full.png" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
-  </si>
-  <si>
     <t>SH: Umweltverantwortungsinitiative</t>
   </si>
   <si>
@@ -597,13 +401,6 @@
     <t>https://datawrapper.dwcdn.net/DBrya/1/</t>
   </si>
   <si>
-    <t>&lt;iframe title="SH: Umweltverantwortungsinitiative" aria-label="Karte" id="datawrapper-chart-DBrya" src="https://datawrapper.dwcdn.net/DBrya/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="495" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
-&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>&lt;div style="min-height:495px" id="datawrapper-vis-DBrya"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/DBrya/embed.js" charset="utf-8" data-target="#datawrapper-vis-DBrya"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/DBrya/full.png" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
-  </si>
-  <si>
     <t>SO: Umweltverantwortungsinitiative</t>
   </si>
   <si>
@@ -613,13 +410,6 @@
     <t>https://datawrapper.dwcdn.net/5Pgnl/1/</t>
   </si>
   <si>
-    <t>&lt;iframe title="SO: Umweltverantwortungsinitiative" aria-label="Karte" id="datawrapper-chart-5Pgnl" src="https://datawrapper.dwcdn.net/5Pgnl/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="495" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
-&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>&lt;div style="min-height:495px" id="datawrapper-vis-5Pgnl"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/5Pgnl/embed.js" charset="utf-8" data-target="#datawrapper-vis-5Pgnl"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/5Pgnl/full.png" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
-  </si>
-  <si>
     <t>SZ: Umweltverantwortungsinitiative</t>
   </si>
   <si>
@@ -629,13 +419,6 @@
     <t>https://datawrapper.dwcdn.net/Cv42Y/1/</t>
   </si>
   <si>
-    <t>&lt;iframe title="SZ: Umweltverantwortungsinitiative" aria-label="Karte" id="datawrapper-chart-Cv42Y" src="https://datawrapper.dwcdn.net/Cv42Y/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="495" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
-&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>&lt;div style="min-height:495px" id="datawrapper-vis-Cv42Y"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/Cv42Y/embed.js" charset="utf-8" data-target="#datawrapper-vis-Cv42Y"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/Cv42Y/full.png" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
-  </si>
-  <si>
     <t>TG: Umweltverantwortungsinitiative</t>
   </si>
   <si>
@@ -645,13 +428,6 @@
     <t>https://datawrapper.dwcdn.net/NFgZn/1/</t>
   </si>
   <si>
-    <t>&lt;iframe title="TG: Umweltverantwortungsinitiative" aria-label="Karte" id="datawrapper-chart-NFgZn" src="https://datawrapper.dwcdn.net/NFgZn/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="495" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
-&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>&lt;div style="min-height:495px" id="datawrapper-vis-NFgZn"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/NFgZn/embed.js" charset="utf-8" data-target="#datawrapper-vis-NFgZn"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/NFgZn/full.png" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
-  </si>
-  <si>
     <t>TI: Iniziativa per la responsabilità ambientale</t>
   </si>
   <si>
@@ -661,13 +437,6 @@
     <t>https://datawrapper.dwcdn.net/1AZGV/1/</t>
   </si>
   <si>
-    <t>&lt;iframe title="TI: Iniziativa per la responsabilità ambientale" aria-label="Mappa" id="datawrapper-chart-1AZGV" src="https://datawrapper.dwcdn.net/1AZGV/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="534" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
-&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>&lt;div style="min-height:534px" id="datawrapper-vis-1AZGV"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/1AZGV/embed.js" charset="utf-8" data-target="#datawrapper-vis-1AZGV"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/1AZGV/full.png" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
-  </si>
-  <si>
     <t>UR: Umweltverantwortungsinitiative</t>
   </si>
   <si>
@@ -677,13 +446,6 @@
     <t>https://datawrapper.dwcdn.net/abKgy/1/</t>
   </si>
   <si>
-    <t>&lt;iframe title="UR: Umweltverantwortungsinitiative" aria-label="Karte" id="datawrapper-chart-abKgy" src="https://datawrapper.dwcdn.net/abKgy/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="495" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
-&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>&lt;div style="min-height:495px" id="datawrapper-vis-abKgy"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/abKgy/embed.js" charset="utf-8" data-target="#datawrapper-vis-abKgy"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/abKgy/full.png" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
-  </si>
-  <si>
     <t>VD: Initiative pour la responsabilité environnementale</t>
   </si>
   <si>
@@ -693,13 +455,6 @@
     <t>https://datawrapper.dwcdn.net/cRZH5/1/</t>
   </si>
   <si>
-    <t>&lt;iframe title="VD: Initiative pour la responsabilité environnementale" aria-label="Carte" id="datawrapper-chart-cRZH5" src="https://datawrapper.dwcdn.net/cRZH5/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="495" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
-&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>&lt;div style="min-height:495px" id="datawrapper-vis-cRZH5"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/cRZH5/embed.js" charset="utf-8" data-target="#datawrapper-vis-cRZH5"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/cRZH5/full.png" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
-  </si>
-  <si>
     <t>VS: Umweltverantwortungsinitiative</t>
   </si>
   <si>
@@ -709,13 +464,6 @@
     <t>https://datawrapper.dwcdn.net/W0b6L/1/</t>
   </si>
   <si>
-    <t>&lt;iframe title="VS: Umweltverantwortungsinitiative" aria-label="Karte" id="datawrapper-chart-W0b6L" src="https://datawrapper.dwcdn.net/W0b6L/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="495" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
-&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>&lt;div style="min-height:495px" id="datawrapper-vis-W0b6L"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/W0b6L/embed.js" charset="utf-8" data-target="#datawrapper-vis-W0b6L"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/W0b6L/full.png" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
-  </si>
-  <si>
     <t>VS: Initiative pour la responsabilité environnementale</t>
   </si>
   <si>
@@ -725,13 +473,6 @@
     <t>https://datawrapper.dwcdn.net/S8gAM/1/</t>
   </si>
   <si>
-    <t>&lt;iframe title="VS: Initiative pour la responsabilité environnementale" aria-label="Carte" id="datawrapper-chart-S8gAM" src="https://datawrapper.dwcdn.net/S8gAM/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="495" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
-&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>&lt;div style="min-height:495px" id="datawrapper-vis-S8gAM"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/S8gAM/embed.js" charset="utf-8" data-target="#datawrapper-vis-S8gAM"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/S8gAM/full.png" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
-  </si>
-  <si>
     <t>ZG: Umweltverantwortungsinitiative</t>
   </si>
   <si>
@@ -741,13 +482,6 @@
     <t>https://datawrapper.dwcdn.net/7xNrK/1/</t>
   </si>
   <si>
-    <t>&lt;iframe title="ZG: Umweltverantwortungsinitiative" aria-label="Karte" id="datawrapper-chart-7xNrK" src="https://datawrapper.dwcdn.net/7xNrK/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="495" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
-&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>&lt;div style="min-height:495px" id="datawrapper-vis-7xNrK"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/7xNrK/embed.js" charset="utf-8" data-target="#datawrapper-vis-7xNrK"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/7xNrK/full.png" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
-  </si>
-  <si>
     <t>ZH: Umweltverantwortungsinitiative</t>
   </si>
   <si>
@@ -757,18 +491,335 @@
     <t>https://datawrapper.dwcdn.net/RYyKL/1/</t>
   </si>
   <si>
-    <t>&lt;iframe title="ZH: Umweltverantwortungsinitiative" aria-label="Karte" id="datawrapper-chart-RYyKL" src="https://datawrapper.dwcdn.net/RYyKL/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="495" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
-&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>&lt;div style="min-height:495px" id="datawrapper-vis-RYyKL"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/RYyKL/embed.js" charset="utf-8" data-target="#datawrapper-vis-RYyKL"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/RYyKL/full.png" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
+    <t>&lt;iframe title="AG: Umweltverantwortungsinitiative" aria-label="Karte" id="datawrapper-chart-npfI0" src="https://datawrapper.dwcdn.net/npfI0/1/?unq=keystone-sda" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="495" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
+&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe title="AI: Umweltverantwortungsinitiative" aria-label="Karte" id="datawrapper-chart-4cZuj" src="https://datawrapper.dwcdn.net/4cZuj/1/?unq=keystone-sda" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="495" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
+&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe title="AR: Umweltverantwortungsinitiative" aria-label="Karte" id="datawrapper-chart-TXBuv" src="https://datawrapper.dwcdn.net/TXBuv/1/?unq=keystone-sda" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="495" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
+&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe title="BE: Umweltverantwortungsinitiative" aria-label="Karte" id="datawrapper-chart-lEq91" src="https://datawrapper.dwcdn.net/lEq91/1/?unq=keystone-sda" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="495" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
+&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe title="BE: Initiative pour la responsabilité environnementale" aria-label="Carte" id="datawrapper-chart-LHsSl" src="https://datawrapper.dwcdn.net/LHsSl/1/?unq=keystone-sda" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="495" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
+&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe title="BL: Umweltverantwortungsinitiative" aria-label="Karte" id="datawrapper-chart-iL4mU" src="https://datawrapper.dwcdn.net/iL4mU/1/?unq=keystone-sda" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="495" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
+&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe title="BS: Umweltverantwortungsinitiative" aria-label="Karte" id="datawrapper-chart-wEyBT" src="https://datawrapper.dwcdn.net/wEyBT/1/?unq=keystone-sda" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="495" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
+&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe title="FR: Umweltverantwortungsinitiative" aria-label="Karte" id="datawrapper-chart-RkWLI" src="https://datawrapper.dwcdn.net/RkWLI/1/?unq=keystone-sda" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="495" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
+&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe title="FR: Initiative pour la responsabilité environnementale" aria-label="Carte" id="datawrapper-chart-doEOq" src="https://datawrapper.dwcdn.net/doEOq/1/?unq=keystone-sda" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="495" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
+&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe title="GE: Initiative pour la responsabilité environnementale" aria-label="Carte" id="datawrapper-chart-c3n6S" src="https://datawrapper.dwcdn.net/c3n6S/1/?unq=keystone-sda" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="495" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
+&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe title="GL: Umweltverantwortungsinitiative" aria-label="Karte" id="datawrapper-chart-ZcA7s" src="https://datawrapper.dwcdn.net/ZcA7s/1/?unq=keystone-sda" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="495" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
+&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe title="GR: Umweltverantwortungsinitiative" aria-label="Karte" id="datawrapper-chart-7FS0v" src="https://datawrapper.dwcdn.net/7FS0v/1/?unq=keystone-sda" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="495" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
+&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe title="GR: Iniziativa per la responsabilità ambientale" aria-label="Mappa" id="datawrapper-chart-eQM3y" src="https://datawrapper.dwcdn.net/eQM3y/1/?unq=keystone-sda" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="534" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
+&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe title="JU: Initiative pour la responsabilité environnementale" aria-label="Carte" id="datawrapper-chart-I3zzi" src="https://datawrapper.dwcdn.net/I3zzi/1/?unq=keystone-sda" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="495" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
+&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe title="LU: Umweltverantwortungsinitiative" aria-label="Karte" id="datawrapper-chart-782V7" src="https://datawrapper.dwcdn.net/782V7/1/?unq=keystone-sda" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="495" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
+&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe title="NE: Initiative pour la responsabilité environnementale" aria-label="Carte" id="datawrapper-chart-V6p8L" src="https://datawrapper.dwcdn.net/V6p8L/1/?unq=keystone-sda" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="495" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
+&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe title="NW: Umweltverantwortungsinitiative" aria-label="Karte" id="datawrapper-chart-G4wXr" src="https://datawrapper.dwcdn.net/G4wXr/1/?unq=keystone-sda" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="495" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
+&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe title="OW: Umweltverantwortungsinitiative" aria-label="Karte" id="datawrapper-chart-HW4Xa" src="https://datawrapper.dwcdn.net/HW4Xa/1/?unq=keystone-sda" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="495" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
+&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe title="SG: Umweltverantwortungsinitiative" aria-label="Karte" id="datawrapper-chart-sOGeN" src="https://datawrapper.dwcdn.net/sOGeN/1/?unq=keystone-sda" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="495" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
+&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe title="SH: Umweltverantwortungsinitiative" aria-label="Karte" id="datawrapper-chart-DBrya" src="https://datawrapper.dwcdn.net/DBrya/1/?unq=keystone-sda" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="495" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
+&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe title="SO: Umweltverantwortungsinitiative" aria-label="Karte" id="datawrapper-chart-5Pgnl" src="https://datawrapper.dwcdn.net/5Pgnl/1/?unq=keystone-sda" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="495" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
+&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe title="SZ: Umweltverantwortungsinitiative" aria-label="Karte" id="datawrapper-chart-Cv42Y" src="https://datawrapper.dwcdn.net/Cv42Y/1/?unq=keystone-sda" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="495" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
+&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe title="TG: Umweltverantwortungsinitiative" aria-label="Karte" id="datawrapper-chart-NFgZn" src="https://datawrapper.dwcdn.net/NFgZn/1/?unq=keystone-sda" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="495" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
+&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe title="TI: Iniziativa per la responsabilità ambientale" aria-label="Mappa" id="datawrapper-chart-1AZGV" src="https://datawrapper.dwcdn.net/1AZGV/1/?unq=keystone-sda" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="534" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
+&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe title="UR: Umweltverantwortungsinitiative" aria-label="Karte" id="datawrapper-chart-abKgy" src="https://datawrapper.dwcdn.net/abKgy/1/?unq=keystone-sda" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="495" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
+&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe title="VD: Initiative pour la responsabilité environnementale" aria-label="Carte" id="datawrapper-chart-cRZH5" src="https://datawrapper.dwcdn.net/cRZH5/1/?unq=keystone-sda" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="495" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
+&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe title="VS: Umweltverantwortungsinitiative" aria-label="Karte" id="datawrapper-chart-W0b6L" src="https://datawrapper.dwcdn.net/W0b6L/1/?unq=keystone-sda" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="495" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
+&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe title="VS: Initiative pour la responsabilité environnementale" aria-label="Carte" id="datawrapper-chart-S8gAM" src="https://datawrapper.dwcdn.net/S8gAM/1/?unq=keystone-sda" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="495" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
+&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe title="ZG: Umweltverantwortungsinitiative" aria-label="Karte" id="datawrapper-chart-7xNrK" src="https://datawrapper.dwcdn.net/7xNrK/1/?unq=keystone-sda" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="495" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
+&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe title="ZH: Umweltverantwortungsinitiative" aria-label="Karte" id="datawrapper-chart-RYyKL" src="https://datawrapper.dwcdn.net/RYyKL/1/?unq=keystone-sda" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="495" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
+&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe title="Aktueller Stand der Abstimmungen vom 9. Februar 2025" aria-label="Balken (gestapelt)" id="datawrapper-chart-jgT3p" src="https://datawrapper.dwcdn.net/jgT3p/1/?unq=keystone-sda" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="469" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
+&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe title="Etat actuel des votes au 9 février 2025" aria-label="Barres empilées" id="datawrapper-chart-QuOAX" src="https://datawrapper.dwcdn.net/QuOAX/1/?unq=keystone-sda" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="452" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
+&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe title="Situazione attuale delle votazioni del 9 febbraio 2025" aria-label="Barre impilate" id="datawrapper-chart-8oC44" src="https://datawrapper.dwcdn.net/8oC44/1/?unq=keystone-sda" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="469" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
+&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe title="Umweltverantwortungsinitiative" aria-label="Karte" id="datawrapper-chart-1zVlt" src="https://datawrapper.dwcdn.net/1zVlt/1/?unq=keystone-sda" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="495" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
+&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe title="Umweltverantwortungsinitiative" aria-label="Karte" id="datawrapper-chart-61KFf" src="https://datawrapper.dwcdn.net/61KFf/1/?unq=keystone-sda" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="495" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
+&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe title="Initiative pour la responsabilité environnementale" aria-label="Carte" id="datawrapper-chart-M6qyl" src="https://datawrapper.dwcdn.net/M6qyl/1/?unq=keystone-sda" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="495" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
+&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe title="Initiative pour la responsabilité environnementale" aria-label="Carte" id="datawrapper-chart-BHRDV" src="https://datawrapper.dwcdn.net/BHRDV/1/?unq=keystone-sda" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="495" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
+&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe title="Iniziativa per la responsabilità ambientale" aria-label="Mappa" id="datawrapper-chart-pHkly" src="https://datawrapper.dwcdn.net/pHkly/1/?unq=keystone-sda" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="534" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
+&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe title="Iniziativa per la responsabilità ambientale" aria-label="Mappa" id="datawrapper-chart-6ksA0" src="https://datawrapper.dwcdn.net/6ksA0/1/?unq=keystone-sda" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="495" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
+&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div style="min-height:469px" id="datawrapper-vis-jgT3p"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/jgT3p/embed.js" charset="utf-8" data-target="#datawrapper-vis-jgT3p"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/jgT3p/full.png?unq=keystone-sda" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div style="min-height:452px" id="datawrapper-vis-QuOAX"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/QuOAX/embed.js" charset="utf-8" data-target="#datawrapper-vis-QuOAX"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/QuOAX/full.png?unq=keystone-sda" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div style="min-height:469px" id="datawrapper-vis-8oC44"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/8oC44/embed.js" charset="utf-8" data-target="#datawrapper-vis-8oC44"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/8oC44/full.png?unq=keystone-sda" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div style="min-height:495px" id="datawrapper-vis-1zVlt"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/1zVlt/embed.js" charset="utf-8" data-target="#datawrapper-vis-1zVlt"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/1zVlt/full.png?unq=keystone-sda" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div style="min-height:495px" id="datawrapper-vis-61KFf"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/61KFf/embed.js" charset="utf-8" data-target="#datawrapper-vis-61KFf"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/61KFf/full.png?unq=keystone-sda" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div style="min-height:495px" id="datawrapper-vis-M6qyl"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/M6qyl/embed.js" charset="utf-8" data-target="#datawrapper-vis-M6qyl"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/M6qyl/full.png?unq=keystone-sda" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div style="min-height:495px" id="datawrapper-vis-BHRDV"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/BHRDV/embed.js" charset="utf-8" data-target="#datawrapper-vis-BHRDV"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/BHRDV/full.png?unq=keystone-sda" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div style="min-height:534px" id="datawrapper-vis-pHkly"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/pHkly/embed.js" charset="utf-8" data-target="#datawrapper-vis-pHkly"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/pHkly/full.png?unq=keystone-sda" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div style="min-height:495px" id="datawrapper-vis-6ksA0"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/6ksA0/embed.js" charset="utf-8" data-target="#datawrapper-vis-6ksA0"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/6ksA0/full.png?unq=keystone-sda" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div style="min-height:495px" id="datawrapper-vis-npfI0"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/npfI0/embed.js" charset="utf-8" data-target="#datawrapper-vis-npfI0"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/npfI0/full.png?unq=keystone-sda" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div style="min-height:495px" id="datawrapper-vis-4cZuj"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/4cZuj/embed.js" charset="utf-8" data-target="#datawrapper-vis-4cZuj"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/4cZuj/full.png?unq=keystone-sda" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div style="min-height:495px" id="datawrapper-vis-TXBuv"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/TXBuv/embed.js" charset="utf-8" data-target="#datawrapper-vis-TXBuv"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/TXBuv/full.png?unq=keystone-sda" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div style="min-height:495px" id="datawrapper-vis-lEq91"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/lEq91/embed.js" charset="utf-8" data-target="#datawrapper-vis-lEq91"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/lEq91/full.png?unq=keystone-sda" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div style="min-height:495px" id="datawrapper-vis-LHsSl"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/LHsSl/embed.js" charset="utf-8" data-target="#datawrapper-vis-LHsSl"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/LHsSl/full.png?unq=keystone-sda" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div style="min-height:495px" id="datawrapper-vis-iL4mU"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/iL4mU/embed.js" charset="utf-8" data-target="#datawrapper-vis-iL4mU"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/iL4mU/full.png?unq=keystone-sda" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div style="min-height:495px" id="datawrapper-vis-wEyBT"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/wEyBT/embed.js" charset="utf-8" data-target="#datawrapper-vis-wEyBT"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/wEyBT/full.png?unq=keystone-sda" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div style="min-height:495px" id="datawrapper-vis-RkWLI"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/RkWLI/embed.js" charset="utf-8" data-target="#datawrapper-vis-RkWLI"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/RkWLI/full.png?unq=keystone-sda" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div style="min-height:495px" id="datawrapper-vis-doEOq"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/doEOq/embed.js" charset="utf-8" data-target="#datawrapper-vis-doEOq"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/doEOq/full.png?unq=keystone-sda" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div style="min-height:495px" id="datawrapper-vis-c3n6S"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/c3n6S/embed.js" charset="utf-8" data-target="#datawrapper-vis-c3n6S"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/c3n6S/full.png?unq=keystone-sda" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div style="min-height:495px" id="datawrapper-vis-ZcA7s"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/ZcA7s/embed.js" charset="utf-8" data-target="#datawrapper-vis-ZcA7s"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/ZcA7s/full.png?unq=keystone-sda" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div style="min-height:495px" id="datawrapper-vis-7FS0v"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/7FS0v/embed.js" charset="utf-8" data-target="#datawrapper-vis-7FS0v"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/7FS0v/full.png?unq=keystone-sda" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div style="min-height:534px" id="datawrapper-vis-eQM3y"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/eQM3y/embed.js" charset="utf-8" data-target="#datawrapper-vis-eQM3y"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/eQM3y/full.png?unq=keystone-sda" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div style="min-height:495px" id="datawrapper-vis-I3zzi"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/I3zzi/embed.js" charset="utf-8" data-target="#datawrapper-vis-I3zzi"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/I3zzi/full.png?unq=keystone-sda" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div style="min-height:495px" id="datawrapper-vis-782V7"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/782V7/embed.js" charset="utf-8" data-target="#datawrapper-vis-782V7"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/782V7/full.png?unq=keystone-sda" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div style="min-height:495px" id="datawrapper-vis-V6p8L"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/V6p8L/embed.js" charset="utf-8" data-target="#datawrapper-vis-V6p8L"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/V6p8L/full.png?unq=keystone-sda" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div style="min-height:495px" id="datawrapper-vis-G4wXr"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/G4wXr/embed.js" charset="utf-8" data-target="#datawrapper-vis-G4wXr"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/G4wXr/full.png?unq=keystone-sda" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div style="min-height:495px" id="datawrapper-vis-HW4Xa"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/HW4Xa/embed.js" charset="utf-8" data-target="#datawrapper-vis-HW4Xa"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/HW4Xa/full.png?unq=keystone-sda" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div style="min-height:495px" id="datawrapper-vis-sOGeN"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/sOGeN/embed.js" charset="utf-8" data-target="#datawrapper-vis-sOGeN"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/sOGeN/full.png?unq=keystone-sda" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div style="min-height:495px" id="datawrapper-vis-DBrya"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/DBrya/embed.js" charset="utf-8" data-target="#datawrapper-vis-DBrya"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/DBrya/full.png?unq=keystone-sda" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div style="min-height:495px" id="datawrapper-vis-5Pgnl"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/5Pgnl/embed.js" charset="utf-8" data-target="#datawrapper-vis-5Pgnl"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/5Pgnl/full.png?unq=keystone-sda" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div style="min-height:495px" id="datawrapper-vis-Cv42Y"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/Cv42Y/embed.js" charset="utf-8" data-target="#datawrapper-vis-Cv42Y"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/Cv42Y/full.png?unq=keystone-sda" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div style="min-height:495px" id="datawrapper-vis-NFgZn"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/NFgZn/embed.js" charset="utf-8" data-target="#datawrapper-vis-NFgZn"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/NFgZn/full.png?unq=keystone-sda" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div style="min-height:534px" id="datawrapper-vis-1AZGV"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/1AZGV/embed.js" charset="utf-8" data-target="#datawrapper-vis-1AZGV"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/1AZGV/full.png?unq=keystone-sda" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div style="min-height:495px" id="datawrapper-vis-abKgy"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/abKgy/embed.js" charset="utf-8" data-target="#datawrapper-vis-abKgy"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/abKgy/full.png?unq=keystone-sda" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div style="min-height:495px" id="datawrapper-vis-cRZH5"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/cRZH5/embed.js" charset="utf-8" data-target="#datawrapper-vis-cRZH5"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/cRZH5/full.png?unq=keystone-sda" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div style="min-height:495px" id="datawrapper-vis-W0b6L"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/W0b6L/embed.js" charset="utf-8" data-target="#datawrapper-vis-W0b6L"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/W0b6L/full.png?unq=keystone-sda" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div style="min-height:495px" id="datawrapper-vis-S8gAM"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/S8gAM/embed.js" charset="utf-8" data-target="#datawrapper-vis-S8gAM"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/S8gAM/full.png?unq=keystone-sda" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div style="min-height:495px" id="datawrapper-vis-7xNrK"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/7xNrK/embed.js" charset="utf-8" data-target="#datawrapper-vis-7xNrK"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/7xNrK/full.png?unq=keystone-sda" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div style="min-height:495px" id="datawrapper-vis-RYyKL"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/RYyKL/embed.js" charset="utf-8" data-target="#datawrapper-vis-RYyKL"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/RYyKL/full.png?unq=keystone-sda" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>Uebersicht Tabelle Kantone</t>
+  </si>
+  <si>
+    <t>Umweltverantwortungsinitiative: Übersicht Kantone</t>
+  </si>
+  <si>
+    <t>M0jHG</t>
+  </si>
+  <si>
+    <t>https://datawrapper.dwcdn.net/M0jHG/52/</t>
+  </si>
+  <si>
+    <t>Initiative pour la responsabilité environnementale: aperçu des cantons</t>
+  </si>
+  <si>
+    <t>CRlIJ</t>
+  </si>
+  <si>
+    <t>https://datawrapper.dwcdn.net/CRlIJ/6/</t>
+  </si>
+  <si>
+    <t>Iniziativa per la responsabilità ambientale: panoramica dei cantoni</t>
+  </si>
+  <si>
+    <t>0LtL9</t>
+  </si>
+  <si>
+    <t>https://datawrapper.dwcdn.net/0LtL9/5/</t>
+  </si>
+  <si>
+    <t>&lt;iframe title="Umweltverantwortungsinitiative: Übersicht Kantone" aria-label="Tabelle" id="datawrapper-chart-M0jHG" src="https://datawrapper.dwcdn.net/M0jHG/52/?unq=keystone-sda" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="1401" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
+&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe title="Initiative pour la responsabilité environnementale: aperçu des cantons" aria-label="Tableau" id="datawrapper-chart-CRlIJ" src="https://datawrapper.dwcdn.net/CRlIJ/6/?unq=keystone-sda" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="1490" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
+&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe title="Iniziativa per la responsabilità ambientale: panoramica dei cantoni" aria-label="Tabella" id="datawrapper-chart-0LtL9" src="https://datawrapper.dwcdn.net/0LtL9/5/?unq=keystone-sda" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="1401" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
+&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div style="min-height:1401px" id="datawrapper-vis-M0jHG"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/M0jHG/embed.js" charset="utf-8" data-target="#datawrapper-vis-M0jHG"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/M0jHG/full.png?unq=keystone-sda" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div style="min-height:1490px" id="datawrapper-vis-CRlIJ"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/CRlIJ/embed.js" charset="utf-8" data-target="#datawrapper-vis-CRlIJ"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/CRlIJ/full.png?unq=keystone-sda" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div style="min-height:1401px" id="datawrapper-vis-0LtL9"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/0LtL9/embed.js" charset="utf-8" data-target="#datawrapper-vis-0LtL9"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/0LtL9/full.png?unq=keystone-sda" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -780,6 +831,14 @@
       <b/>
       <sz val="11"/>
       <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -808,17 +867,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Link" xfId="1" builtinId="8"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1131,21 +1192,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="54.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="8" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="40.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.7109375" customWidth="1"/>
-    <col min="8" max="8" width="32.85546875" customWidth="1"/>
+    <col min="7" max="7" width="34" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="255.7109375" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -1167,10 +1228,10 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1190,14 +1251,14 @@
       <c r="E2" t="s">
         <v>42</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="G2" t="s">
-        <v>44</v>
-      </c>
-      <c r="H2" t="s">
-        <v>45</v>
+      <c r="G2" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -1208,22 +1269,22 @@
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D3" t="s">
         <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>48</v>
-      </c>
-      <c r="G3" t="s">
-        <v>49</v>
-      </c>
-      <c r="H3" t="s">
-        <v>50</v>
+        <v>46</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -1234,191 +1295,275 @@
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D4" t="s">
         <v>14</v>
       </c>
       <c r="E4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F4" t="s">
-        <v>53</v>
-      </c>
-      <c r="G4" t="s">
-        <v>54</v>
-      </c>
-      <c r="H4" t="s">
-        <v>55</v>
+        <v>49</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>234</v>
       </c>
       <c r="B5" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C5" t="s">
-        <v>57</v>
+        <v>235</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
       </c>
       <c r="E5" t="s">
-        <v>58</v>
-      </c>
-      <c r="F5" t="s">
-        <v>59</v>
-      </c>
-      <c r="G5" t="s">
-        <v>60</v>
-      </c>
-      <c r="H5" t="s">
-        <v>61</v>
+        <v>236</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>234</v>
       </c>
       <c r="B6" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C6" t="s">
-        <v>57</v>
+        <v>238</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E6" t="s">
-        <v>62</v>
-      </c>
-      <c r="F6" t="s">
-        <v>63</v>
-      </c>
-      <c r="G6" t="s">
-        <v>64</v>
-      </c>
-      <c r="H6" t="s">
-        <v>65</v>
+        <v>239</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>234</v>
       </c>
       <c r="B7" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C7" t="s">
-        <v>66</v>
+        <v>241</v>
       </c>
       <c r="D7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E7" t="s">
-        <v>67</v>
-      </c>
-      <c r="F7" t="s">
-        <v>68</v>
-      </c>
-      <c r="G7" t="s">
-        <v>69</v>
-      </c>
-      <c r="H7" t="s">
-        <v>70</v>
+        <v>242</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C8" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="D8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E8" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="F8" t="s">
-        <v>72</v>
-      </c>
-      <c r="G8" t="s">
-        <v>73</v>
-      </c>
-      <c r="H8" t="s">
-        <v>74</v>
+        <v>53</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C9" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="D9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E9" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="F9" t="s">
-        <v>77</v>
-      </c>
-      <c r="G9" t="s">
-        <v>78</v>
-      </c>
-      <c r="H9" t="s">
-        <v>79</v>
+        <v>55</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" t="s">
+        <v>57</v>
+      </c>
+      <c r="F10" t="s">
+        <v>58</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>10</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" t="s">
         <v>56</v>
       </c>
-      <c r="C10" t="s">
-        <v>75</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="D11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" t="s">
+        <v>60</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" t="s">
+        <v>61</v>
+      </c>
+      <c r="D12" t="s">
         <v>14</v>
       </c>
-      <c r="E10" t="s">
-        <v>80</v>
-      </c>
-      <c r="F10" t="s">
-        <v>81</v>
-      </c>
-      <c r="G10" t="s">
-        <v>82</v>
-      </c>
-      <c r="H10" t="s">
-        <v>83</v>
+      <c r="E12" t="s">
+        <v>62</v>
+      </c>
+      <c r="F12" t="s">
+        <v>63</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" t="s">
+        <v>61</v>
+      </c>
+      <c r="D13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" t="s">
+        <v>64</v>
+      </c>
+      <c r="F13" t="s">
+        <v>65</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>203</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F2" r:id="rId1" xr:uid="{15B9C293-7AC2-4352-80A0-79A4FF470981}"/>
+    <hyperlink ref="F5" r:id="rId2" xr:uid="{3DB0EED0-7983-4AAD-AFD5-493C9BCDCFAF}"/>
+    <hyperlink ref="F6" r:id="rId3" xr:uid="{CDA991FC-8B33-4BA5-AB91-4FC0D85E84FA}"/>
+    <hyperlink ref="F7" r:id="rId4" xr:uid="{E90BE85C-74F9-407B-8EAC-59A65809D1D5}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82D0F143-C18B-42EA-AEC2-4FFFD158D8D3}">
-  <dimension ref="A1:H114"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1429,7 +1574,8 @@
     <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="40.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="47.140625" customWidth="1"/>
+    <col min="7" max="7" width="47.140625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="47.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -1451,7 +1597,7 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
@@ -1463,25 +1609,25 @@
         <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C2" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="D2" t="s">
         <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="F2" t="s">
-        <v>86</v>
-      </c>
-      <c r="G2" t="s">
-        <v>87</v>
+        <v>68</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="H2" t="s">
-        <v>88</v>
+        <v>204</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -1489,25 +1635,25 @@
         <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C3" t="s">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="D3" t="s">
         <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="F3" t="s">
-        <v>91</v>
-      </c>
-      <c r="G3" t="s">
-        <v>92</v>
+        <v>71</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>157</v>
       </c>
       <c r="H3" t="s">
-        <v>93</v>
+        <v>205</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -1515,25 +1661,25 @@
         <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C4" t="s">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="D4" t="s">
         <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="F4" t="s">
-        <v>96</v>
-      </c>
-      <c r="G4" t="s">
-        <v>97</v>
+        <v>74</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>158</v>
       </c>
       <c r="H4" t="s">
-        <v>98</v>
+        <v>206</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -1541,25 +1687,25 @@
         <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C5" t="s">
-        <v>99</v>
+        <v>75</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
       </c>
       <c r="E5" t="s">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="F5" t="s">
-        <v>101</v>
-      </c>
-      <c r="G5" t="s">
-        <v>102</v>
+        <v>77</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>159</v>
       </c>
       <c r="H5" t="s">
-        <v>103</v>
+        <v>207</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -1567,25 +1713,25 @@
         <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C6" t="s">
-        <v>104</v>
+        <v>78</v>
       </c>
       <c r="D6" t="s">
         <v>13</v>
       </c>
       <c r="E6" t="s">
-        <v>105</v>
+        <v>79</v>
       </c>
       <c r="F6" t="s">
-        <v>106</v>
-      </c>
-      <c r="G6" t="s">
-        <v>107</v>
+        <v>80</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>160</v>
       </c>
       <c r="H6" t="s">
-        <v>108</v>
+        <v>208</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -1593,25 +1739,25 @@
         <v>19</v>
       </c>
       <c r="B7" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C7" t="s">
-        <v>109</v>
+        <v>81</v>
       </c>
       <c r="D7" t="s">
         <v>12</v>
       </c>
       <c r="E7" t="s">
-        <v>110</v>
+        <v>82</v>
       </c>
       <c r="F7" t="s">
-        <v>111</v>
-      </c>
-      <c r="G7" t="s">
-        <v>112</v>
+        <v>83</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>161</v>
       </c>
       <c r="H7" t="s">
-        <v>113</v>
+        <v>209</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -1619,25 +1765,25 @@
         <v>20</v>
       </c>
       <c r="B8" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C8" t="s">
-        <v>114</v>
+        <v>84</v>
       </c>
       <c r="D8" t="s">
         <v>12</v>
       </c>
       <c r="E8" t="s">
-        <v>115</v>
+        <v>85</v>
       </c>
       <c r="F8" t="s">
-        <v>116</v>
-      </c>
-      <c r="G8" t="s">
-        <v>117</v>
+        <v>86</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>162</v>
       </c>
       <c r="H8" t="s">
-        <v>118</v>
+        <v>210</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -1645,25 +1791,25 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C9" t="s">
-        <v>119</v>
+        <v>87</v>
       </c>
       <c r="D9" t="s">
         <v>12</v>
       </c>
       <c r="E9" t="s">
-        <v>120</v>
+        <v>88</v>
       </c>
       <c r="F9" t="s">
-        <v>121</v>
-      </c>
-      <c r="G9" t="s">
-        <v>122</v>
+        <v>89</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>163</v>
       </c>
       <c r="H9" t="s">
-        <v>123</v>
+        <v>211</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -1671,25 +1817,25 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C10" t="s">
-        <v>124</v>
+        <v>90</v>
       </c>
       <c r="D10" t="s">
         <v>13</v>
       </c>
       <c r="E10" t="s">
-        <v>125</v>
+        <v>91</v>
       </c>
       <c r="F10" t="s">
-        <v>126</v>
-      </c>
-      <c r="G10" t="s">
-        <v>127</v>
+        <v>92</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>164</v>
       </c>
       <c r="H10" t="s">
-        <v>128</v>
+        <v>212</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -1697,25 +1843,25 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C11" t="s">
-        <v>129</v>
+        <v>93</v>
       </c>
       <c r="D11" t="s">
         <v>13</v>
       </c>
       <c r="E11" t="s">
-        <v>130</v>
+        <v>94</v>
       </c>
       <c r="F11" t="s">
-        <v>131</v>
-      </c>
-      <c r="G11" t="s">
-        <v>132</v>
+        <v>95</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>165</v>
       </c>
       <c r="H11" t="s">
-        <v>133</v>
+        <v>213</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -1723,25 +1869,25 @@
         <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C12" t="s">
-        <v>134</v>
+        <v>96</v>
       </c>
       <c r="D12" t="s">
         <v>12</v>
       </c>
       <c r="E12" t="s">
-        <v>135</v>
+        <v>97</v>
       </c>
       <c r="F12" t="s">
-        <v>136</v>
-      </c>
-      <c r="G12" t="s">
-        <v>137</v>
+        <v>98</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>166</v>
       </c>
       <c r="H12" t="s">
-        <v>138</v>
+        <v>214</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -1749,25 +1895,25 @@
         <v>24</v>
       </c>
       <c r="B13" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C13" t="s">
-        <v>139</v>
+        <v>99</v>
       </c>
       <c r="D13" t="s">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="F13" t="s">
-        <v>141</v>
-      </c>
-      <c r="G13" t="s">
-        <v>142</v>
+        <v>101</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="H13" t="s">
-        <v>143</v>
+        <v>215</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -1775,25 +1921,25 @@
         <v>24</v>
       </c>
       <c r="B14" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C14" t="s">
-        <v>144</v>
+        <v>102</v>
       </c>
       <c r="D14" t="s">
         <v>14</v>
       </c>
       <c r="E14" t="s">
-        <v>145</v>
+        <v>103</v>
       </c>
       <c r="F14" t="s">
-        <v>146</v>
-      </c>
-      <c r="G14" t="s">
-        <v>147</v>
+        <v>104</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>168</v>
       </c>
       <c r="H14" t="s">
-        <v>148</v>
+        <v>216</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -1801,25 +1947,25 @@
         <v>25</v>
       </c>
       <c r="B15" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C15" t="s">
-        <v>149</v>
+        <v>105</v>
       </c>
       <c r="D15" t="s">
         <v>13</v>
       </c>
       <c r="E15" t="s">
-        <v>150</v>
+        <v>106</v>
       </c>
       <c r="F15" t="s">
-        <v>151</v>
-      </c>
-      <c r="G15" t="s">
-        <v>152</v>
+        <v>107</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>169</v>
       </c>
       <c r="H15" t="s">
-        <v>153</v>
+        <v>217</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -1827,25 +1973,25 @@
         <v>26</v>
       </c>
       <c r="B16" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C16" t="s">
-        <v>154</v>
+        <v>108</v>
       </c>
       <c r="D16" t="s">
         <v>12</v>
       </c>
       <c r="E16" t="s">
-        <v>155</v>
+        <v>109</v>
       </c>
       <c r="F16" t="s">
-        <v>156</v>
-      </c>
-      <c r="G16" t="s">
-        <v>157</v>
+        <v>110</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>170</v>
       </c>
       <c r="H16" t="s">
-        <v>158</v>
+        <v>218</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -1853,25 +1999,25 @@
         <v>27</v>
       </c>
       <c r="B17" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C17" t="s">
-        <v>159</v>
+        <v>111</v>
       </c>
       <c r="D17" t="s">
         <v>13</v>
       </c>
       <c r="E17" t="s">
-        <v>160</v>
+        <v>112</v>
       </c>
       <c r="F17" t="s">
-        <v>161</v>
-      </c>
-      <c r="G17" t="s">
-        <v>162</v>
+        <v>113</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>171</v>
       </c>
       <c r="H17" t="s">
-        <v>163</v>
+        <v>219</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -1879,25 +2025,25 @@
         <v>28</v>
       </c>
       <c r="B18" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C18" t="s">
-        <v>164</v>
+        <v>114</v>
       </c>
       <c r="D18" t="s">
         <v>12</v>
       </c>
       <c r="E18" t="s">
-        <v>165</v>
+        <v>115</v>
       </c>
       <c r="F18" t="s">
-        <v>166</v>
-      </c>
-      <c r="G18" t="s">
-        <v>167</v>
+        <v>116</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>172</v>
       </c>
       <c r="H18" t="s">
-        <v>168</v>
+        <v>220</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -1905,25 +2051,25 @@
         <v>29</v>
       </c>
       <c r="B19" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C19" t="s">
-        <v>169</v>
+        <v>117</v>
       </c>
       <c r="D19" t="s">
         <v>12</v>
       </c>
       <c r="E19" t="s">
-        <v>170</v>
+        <v>118</v>
       </c>
       <c r="F19" t="s">
-        <v>171</v>
-      </c>
-      <c r="G19" t="s">
-        <v>172</v>
+        <v>119</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>173</v>
       </c>
       <c r="H19" t="s">
-        <v>173</v>
+        <v>221</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -1931,25 +2077,25 @@
         <v>30</v>
       </c>
       <c r="B20" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C20" t="s">
+        <v>120</v>
+      </c>
+      <c r="D20" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" t="s">
+        <v>121</v>
+      </c>
+      <c r="F20" t="s">
+        <v>122</v>
+      </c>
+      <c r="G20" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="D20" t="s">
-        <v>12</v>
-      </c>
-      <c r="E20" t="s">
-        <v>175</v>
-      </c>
-      <c r="F20" t="s">
-        <v>176</v>
-      </c>
-      <c r="G20" t="s">
-        <v>177</v>
-      </c>
       <c r="H20" t="s">
-        <v>178</v>
+        <v>222</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -1957,25 +2103,25 @@
         <v>31</v>
       </c>
       <c r="B21" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C21" t="s">
-        <v>179</v>
+        <v>123</v>
       </c>
       <c r="D21" t="s">
         <v>12</v>
       </c>
       <c r="E21" t="s">
-        <v>180</v>
+        <v>124</v>
       </c>
       <c r="F21" t="s">
-        <v>181</v>
-      </c>
-      <c r="G21" t="s">
-        <v>182</v>
+        <v>125</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>175</v>
       </c>
       <c r="H21" t="s">
-        <v>183</v>
+        <v>223</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -1983,25 +2129,25 @@
         <v>32</v>
       </c>
       <c r="B22" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C22" t="s">
-        <v>184</v>
+        <v>126</v>
       </c>
       <c r="D22" t="s">
         <v>12</v>
       </c>
       <c r="E22" t="s">
-        <v>185</v>
+        <v>127</v>
       </c>
       <c r="F22" t="s">
-        <v>186</v>
-      </c>
-      <c r="G22" t="s">
-        <v>187</v>
+        <v>128</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>176</v>
       </c>
       <c r="H22" t="s">
-        <v>188</v>
+        <v>224</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -2009,25 +2155,25 @@
         <v>33</v>
       </c>
       <c r="B23" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C23" t="s">
-        <v>189</v>
+        <v>129</v>
       </c>
       <c r="D23" t="s">
         <v>12</v>
       </c>
       <c r="E23" t="s">
-        <v>190</v>
+        <v>130</v>
       </c>
       <c r="F23" t="s">
-        <v>191</v>
-      </c>
-      <c r="G23" t="s">
-        <v>192</v>
+        <v>131</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>177</v>
       </c>
       <c r="H23" t="s">
-        <v>193</v>
+        <v>225</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -2035,25 +2181,25 @@
         <v>34</v>
       </c>
       <c r="B24" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C24" t="s">
-        <v>194</v>
+        <v>132</v>
       </c>
       <c r="D24" t="s">
         <v>12</v>
       </c>
       <c r="E24" t="s">
-        <v>195</v>
+        <v>133</v>
       </c>
       <c r="F24" t="s">
-        <v>196</v>
-      </c>
-      <c r="G24" t="s">
-        <v>197</v>
+        <v>134</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>178</v>
       </c>
       <c r="H24" t="s">
-        <v>198</v>
+        <v>226</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -2061,25 +2207,25 @@
         <v>35</v>
       </c>
       <c r="B25" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C25" t="s">
-        <v>199</v>
+        <v>135</v>
       </c>
       <c r="D25" t="s">
         <v>14</v>
       </c>
       <c r="E25" t="s">
-        <v>200</v>
+        <v>136</v>
       </c>
       <c r="F25" t="s">
-        <v>201</v>
-      </c>
-      <c r="G25" t="s">
-        <v>202</v>
+        <v>137</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>179</v>
       </c>
       <c r="H25" t="s">
-        <v>203</v>
+        <v>227</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -2087,25 +2233,25 @@
         <v>36</v>
       </c>
       <c r="B26" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C26" t="s">
-        <v>204</v>
+        <v>138</v>
       </c>
       <c r="D26" t="s">
         <v>12</v>
       </c>
       <c r="E26" t="s">
-        <v>205</v>
+        <v>139</v>
       </c>
       <c r="F26" t="s">
-        <v>206</v>
-      </c>
-      <c r="G26" t="s">
-        <v>207</v>
+        <v>140</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>180</v>
       </c>
       <c r="H26" t="s">
-        <v>208</v>
+        <v>228</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -2113,25 +2259,25 @@
         <v>37</v>
       </c>
       <c r="B27" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C27" t="s">
-        <v>209</v>
+        <v>141</v>
       </c>
       <c r="D27" t="s">
         <v>13</v>
       </c>
       <c r="E27" t="s">
-        <v>210</v>
+        <v>142</v>
       </c>
       <c r="F27" t="s">
-        <v>211</v>
-      </c>
-      <c r="G27" t="s">
-        <v>212</v>
+        <v>143</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>181</v>
       </c>
       <c r="H27" t="s">
-        <v>213</v>
+        <v>229</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -2139,25 +2285,25 @@
         <v>38</v>
       </c>
       <c r="B28" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C28" t="s">
-        <v>214</v>
+        <v>144</v>
       </c>
       <c r="D28" t="s">
         <v>12</v>
       </c>
       <c r="E28" t="s">
-        <v>215</v>
+        <v>145</v>
       </c>
       <c r="F28" t="s">
-        <v>216</v>
-      </c>
-      <c r="G28" t="s">
-        <v>217</v>
+        <v>146</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>182</v>
       </c>
       <c r="H28" t="s">
-        <v>218</v>
+        <v>230</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -2165,25 +2311,25 @@
         <v>38</v>
       </c>
       <c r="B29" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C29" t="s">
-        <v>219</v>
+        <v>147</v>
       </c>
       <c r="D29" t="s">
         <v>13</v>
       </c>
       <c r="E29" t="s">
-        <v>220</v>
+        <v>148</v>
       </c>
       <c r="F29" t="s">
-        <v>221</v>
-      </c>
-      <c r="G29" t="s">
-        <v>222</v>
+        <v>149</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>183</v>
       </c>
       <c r="H29" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -2191,25 +2337,25 @@
         <v>39</v>
       </c>
       <c r="B30" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C30" t="s">
-        <v>224</v>
+        <v>150</v>
       </c>
       <c r="D30" t="s">
         <v>12</v>
       </c>
       <c r="E30" t="s">
-        <v>225</v>
+        <v>151</v>
       </c>
       <c r="F30" t="s">
-        <v>226</v>
-      </c>
-      <c r="G30" t="s">
-        <v>227</v>
+        <v>152</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>184</v>
       </c>
       <c r="H30" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -2217,29 +2363,26 @@
         <v>40</v>
       </c>
       <c r="B31" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C31" t="s">
-        <v>229</v>
+        <v>153</v>
       </c>
       <c r="D31" t="s">
         <v>12</v>
       </c>
       <c r="E31" t="s">
-        <v>230</v>
+        <v>154</v>
       </c>
       <c r="F31" t="s">
-        <v>231</v>
-      </c>
-      <c r="G31" t="s">
-        <v>232</v>
+        <v>155</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>185</v>
       </c>
       <c r="H31" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="114" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G114" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
